--- a/Train_metrics/train_res.xlsx
+++ b/Train_metrics/train_res.xlsx
@@ -49738,7 +49738,7 @@
         <v>0</v>
       </c>
       <c r="B6163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6164">
@@ -49746,7 +49746,7 @@
         <v>0</v>
       </c>
       <c r="B6164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6165">
@@ -49754,7 +49754,7 @@
         <v>0</v>
       </c>
       <c r="B6165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6166">
@@ -49762,7 +49762,7 @@
         <v>0</v>
       </c>
       <c r="B6166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6167">
@@ -49770,7 +49770,7 @@
         <v>0</v>
       </c>
       <c r="B6167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6168">
@@ -49778,7 +49778,7 @@
         <v>0</v>
       </c>
       <c r="B6168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6169">
@@ -49786,7 +49786,7 @@
         <v>0</v>
       </c>
       <c r="B6169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6170">
@@ -49794,7 +49794,7 @@
         <v>0</v>
       </c>
       <c r="B6170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6171">
@@ -49802,7 +49802,7 @@
         <v>0</v>
       </c>
       <c r="B6171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6172">
@@ -49810,7 +49810,7 @@
         <v>0</v>
       </c>
       <c r="B6172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6173">
@@ -49818,7 +49818,7 @@
         <v>0</v>
       </c>
       <c r="B6173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6174">
